--- a/output/Completed_Output.xlsx
+++ b/output/Completed_Output.xlsx
@@ -430,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -539,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="57">
     <border>
@@ -1249,7 +1255,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1893,6 +1899,9 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1981,6 +1990,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,107 +2089,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="50" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,8 +2106,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2610,31 +2619,31 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1"/>
     <row r="2" ht="28.5" customHeight="1">
-      <c r="B2" s="226" t="inlineStr">
+      <c r="B2" s="227" t="inlineStr">
         <is>
           <t>BIGG BOSS 8 - 2025 Driven By MPJ, Pran Foods Potato</t>
         </is>
       </c>
-      <c r="C2" s="227" t="n"/>
-      <c r="D2" s="227" t="n"/>
-      <c r="E2" s="227" t="n"/>
-      <c r="F2" s="227" t="n"/>
-      <c r="G2" s="227" t="n"/>
-      <c r="H2" s="227" t="n"/>
-      <c r="I2" s="227" t="n"/>
-      <c r="J2" s="227" t="n"/>
-      <c r="K2" s="228" t="n"/>
+      <c r="C2" s="228" t="n"/>
+      <c r="D2" s="228" t="n"/>
+      <c r="E2" s="228" t="n"/>
+      <c r="F2" s="228" t="n"/>
+      <c r="G2" s="228" t="n"/>
+      <c r="H2" s="228" t="n"/>
+      <c r="I2" s="228" t="n"/>
+      <c r="J2" s="228" t="n"/>
+      <c r="K2" s="229" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1">
-      <c r="B3" s="309" t="inlineStr">
+      <c r="B3" s="310" t="inlineStr">
         <is>
           <t>Summary</t>
         </is>
       </c>
-      <c r="K3" s="260" t="n"/>
+      <c r="K3" s="261" t="n"/>
     </row>
     <row r="4" ht="18.65" customHeight="1">
-      <c r="B4" s="268" t="n"/>
+      <c r="B4" s="301" t="n"/>
       <c r="C4" s="143" t="inlineStr">
         <is>
           <t>Durations -</t>
@@ -2646,10 +2655,10 @@
         </is>
       </c>
       <c r="E4" s="181" t="n"/>
-      <c r="K4" s="260" t="n"/>
+      <c r="K4" s="261" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="268" t="n"/>
+      <c r="B5" s="301" t="n"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Property Name-</t>
@@ -2661,10 +2670,10 @@
         </is>
       </c>
       <c r="E5" s="181" t="n"/>
-      <c r="K5" s="260" t="n"/>
+      <c r="K5" s="261" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="268" t="n"/>
+      <c r="B6" s="301" t="n"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>Type of Sponsorship -</t>
@@ -2676,10 +2685,10 @@
         </is>
       </c>
       <c r="E6" s="181" t="n"/>
-      <c r="K6" s="260" t="n"/>
+      <c r="K6" s="261" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="268" t="n"/>
+      <c r="B7" s="301" t="n"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Host Name-</t>
@@ -2690,24 +2699,24 @@
           <t>Ankush Hazra</t>
         </is>
       </c>
-      <c r="K7" s="260" t="n"/>
+      <c r="K7" s="261" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="268" t="n"/>
+      <c r="B8" s="301" t="n"/>
       <c r="D8" s="116" t="n"/>
-      <c r="K8" s="260" t="n"/>
+      <c r="K8" s="261" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="268" t="n"/>
+      <c r="B9" s="301" t="n"/>
       <c r="C9" s="182" t="inlineStr">
         <is>
           <t>Past Sponsor Details</t>
         </is>
       </c>
-      <c r="K9" s="260" t="n"/>
+      <c r="K9" s="261" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="268" t="n"/>
+      <c r="B10" s="301" t="n"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Title</t>
@@ -2730,10 +2739,10 @@
         </is>
       </c>
       <c r="I10" s="183" t="n"/>
-      <c r="K10" s="260" t="n"/>
+      <c r="K10" s="261" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="268" t="n"/>
+      <c r="B11" s="301" t="n"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>Special Partner</t>
@@ -2756,16 +2765,16 @@
         </is>
       </c>
       <c r="I11" s="183" t="n"/>
-      <c r="K11" s="260" t="n"/>
+      <c r="K11" s="261" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="268" t="n"/>
+      <c r="B12" s="301" t="n"/>
       <c r="E12" s="183" t="n"/>
       <c r="I12" s="183" t="n"/>
-      <c r="K12" s="260" t="n"/>
+      <c r="K12" s="261" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="268" t="n"/>
+      <c r="B13" s="301" t="n"/>
       <c r="C13" s="182" t="inlineStr">
         <is>
           <t>Current Sponsor Details</t>
@@ -2773,10 +2782,10 @@
       </c>
       <c r="E13" s="183" t="n"/>
       <c r="I13" s="183" t="n"/>
-      <c r="K13" s="260" t="n"/>
+      <c r="K13" s="261" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="268" t="n"/>
+      <c r="B14" s="301" t="n"/>
       <c r="C14" s="144" t="inlineStr">
         <is>
           <t>Title</t>
@@ -2799,10 +2808,10 @@
         </is>
       </c>
       <c r="I14" s="183" t="n"/>
-      <c r="K14" s="260" t="n"/>
+      <c r="K14" s="261" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="268" t="n"/>
+      <c r="B15" s="301" t="n"/>
       <c r="C15" s="144" t="inlineStr">
         <is>
           <t>Special Partner</t>
@@ -2825,32 +2834,32 @@
         </is>
       </c>
       <c r="I15" s="183" t="n"/>
-      <c r="K15" s="260" t="n"/>
+      <c r="K15" s="261" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="268" t="n"/>
-      <c r="K16" s="260" t="n"/>
+      <c r="B16" s="301" t="n"/>
+      <c r="K16" s="261" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="268" t="n"/>
-      <c r="K17" s="260" t="n"/>
+      <c r="B17" s="301" t="n"/>
+      <c r="K17" s="261" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="268" t="n"/>
-      <c r="K18" s="260" t="n"/>
+      <c r="B18" s="301" t="n"/>
+      <c r="K18" s="261" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="268" t="n"/>
+      <c r="B19" s="301" t="n"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>2130 - 2300 (Timing)</t>
         </is>
       </c>
       <c r="E19" s="183" t="n"/>
-      <c r="K19" s="260" t="n"/>
+      <c r="K19" s="261" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="268" t="n"/>
+      <c r="B20" s="301" t="n"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>TV Telecast  -</t>
@@ -2862,10 +2871,10 @@
         </is>
       </c>
       <c r="E20" s="181" t="n"/>
-      <c r="K20" s="260" t="n"/>
+      <c r="K20" s="261" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="268" t="n"/>
+      <c r="B21" s="301" t="n"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>Digital Telecast  -</t>
@@ -2876,32 +2885,32 @@
           <t>Digital Telecast - On</t>
         </is>
       </c>
-      <c r="K21" s="260" t="n"/>
+      <c r="K21" s="261" t="n"/>
     </row>
     <row r="22" ht="2.5" customHeight="1">
-      <c r="B22" s="268" t="n"/>
-      <c r="K22" s="260" t="n"/>
+      <c r="B22" s="301" t="n"/>
+      <c r="K22" s="261" t="n"/>
     </row>
     <row r="23" ht="18.65" customHeight="1">
-      <c r="B23" s="268" t="n"/>
+      <c r="B23" s="301" t="n"/>
       <c r="C23" s="143" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="K23" s="260" t="n"/>
+      <c r="K23" s="261" t="n"/>
     </row>
     <row r="24" ht="28.5" customHeight="1">
-      <c r="B24" s="268" t="n"/>
+      <c r="B24" s="301" t="n"/>
       <c r="C24" s="184" t="n"/>
       <c r="D24" s="184" t="n"/>
       <c r="E24" s="184" t="n"/>
       <c r="F24" s="184" t="n"/>
       <c r="G24" s="184" t="n"/>
-      <c r="K24" s="260" t="n"/>
+      <c r="K24" s="261" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" s="268" t="n"/>
+      <c r="B25" s="301" t="n"/>
       <c r="C25" s="176" t="inlineStr">
         <is>
           <t>Channel</t>
@@ -2927,11 +2936,11 @@
           <t>Market</t>
         </is>
       </c>
-      <c r="K25" s="260" t="n"/>
+      <c r="K25" s="261" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="268" t="n"/>
-      <c r="C26" s="243" t="inlineStr">
+      <c r="B26" s="301" t="n"/>
+      <c r="C26" s="244" t="inlineStr">
         <is>
           <t>STAR MAA</t>
         </is>
@@ -2952,11 +2961,11 @@
           <t>WB</t>
         </is>
       </c>
-      <c r="K26" s="260" t="n"/>
+      <c r="K26" s="261" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" s="268" t="n"/>
-      <c r="C27" s="243" t="inlineStr">
+      <c r="B27" s="301" t="n"/>
+      <c r="C27" s="244" t="inlineStr">
         <is>
           <t>STAR MAA HD</t>
         </is>
@@ -2977,11 +2986,11 @@
           <t>WB</t>
         </is>
       </c>
-      <c r="K27" s="260" t="n"/>
+      <c r="K27" s="261" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" s="268" t="n"/>
-      <c r="C28" s="243" t="inlineStr">
+      <c r="B28" s="301" t="n"/>
+      <c r="C28" s="244" t="inlineStr">
         <is>
           <t>STAR MAA</t>
         </is>
@@ -3002,11 +3011,11 @@
           <t>WB</t>
         </is>
       </c>
-      <c r="K28" s="260" t="n"/>
+      <c r="K28" s="261" t="n"/>
     </row>
     <row r="29">
-      <c r="B29" s="268" t="n"/>
-      <c r="C29" s="243" t="inlineStr">
+      <c r="B29" s="301" t="n"/>
+      <c r="C29" s="244" t="inlineStr">
         <is>
           <t>STAR MAA HD</t>
         </is>
@@ -3027,32 +3036,32 @@
           <t>WB</t>
         </is>
       </c>
-      <c r="K29" s="260" t="n"/>
+      <c r="K29" s="261" t="n"/>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="B30" s="268" t="n"/>
-      <c r="K30" s="260" t="n"/>
+      <c r="B30" s="301" t="n"/>
+      <c r="K30" s="261" t="n"/>
     </row>
     <row r="31" ht="18.65" customHeight="1">
-      <c r="B31" s="268" t="n"/>
+      <c r="B31" s="301" t="n"/>
       <c r="C31" s="143" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="K31" s="260" t="n"/>
+      <c r="K31" s="261" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="268" t="n"/>
+      <c r="B32" s="301" t="n"/>
       <c r="C32" s="185" t="n"/>
       <c r="D32" s="185" t="n"/>
       <c r="E32" s="185" t="n"/>
       <c r="F32" s="185" t="n"/>
       <c r="G32" s="185" t="n"/>
-      <c r="K32" s="260" t="n"/>
+      <c r="K32" s="261" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="268" t="n"/>
+      <c r="B33" s="301" t="n"/>
       <c r="C33" s="176" t="inlineStr">
         <is>
           <t>Platform Name</t>
@@ -3080,11 +3089,11 @@
 (in Mn.)</t>
         </is>
       </c>
-      <c r="K33" s="260" t="n"/>
+      <c r="K33" s="261" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="268" t="n"/>
-      <c r="C34" s="243" t="inlineStr">
+      <c r="B34" s="301" t="n"/>
+      <c r="C34" s="244" t="inlineStr">
         <is>
           <t>Zee5</t>
         </is>
@@ -3105,14 +3114,14 @@
       <c r="G34" s="113" t="n">
         <v>2.25</v>
       </c>
-      <c r="K34" s="260" t="n"/>
+      <c r="K34" s="261" t="n"/>
       <c r="M34" t="n">
         <v>18.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="268" t="n"/>
-      <c r="C35" s="243" t="inlineStr">
+      <c r="B35" s="301" t="n"/>
+      <c r="C35" s="244" t="inlineStr">
         <is>
           <t>Zee5</t>
         </is>
@@ -3133,7 +3142,7 @@
       <c r="G35" s="113" t="n">
         <v>2.25</v>
       </c>
-      <c r="K35" s="260" t="n"/>
+      <c r="K35" s="261" t="n"/>
       <c r="M35" t="n">
         <v>120</v>
       </c>
@@ -3143,30 +3152,30 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="268" t="n"/>
-      <c r="K36" s="260" t="n"/>
+      <c r="B36" s="301" t="n"/>
+      <c r="K36" s="261" t="n"/>
     </row>
     <row r="37" ht="8.5" customHeight="1">
-      <c r="B37" s="268" t="n"/>
-      <c r="K37" s="260" t="n"/>
+      <c r="B37" s="301" t="n"/>
+      <c r="K37" s="261" t="n"/>
     </row>
     <row r="38" ht="12.65" customHeight="1">
-      <c r="B38" s="268" t="n"/>
+      <c r="B38" s="301" t="n"/>
       <c r="D38" s="116" t="n"/>
-      <c r="F38" s="310" t="n"/>
+      <c r="F38" s="311" t="n"/>
       <c r="G38" s="116" t="n"/>
       <c r="H38" s="116" t="n"/>
-      <c r="K38" s="260" t="n"/>
+      <c r="K38" s="261" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="268" t="n"/>
+      <c r="B39" s="301" t="n"/>
       <c r="C39" s="144" t="inlineStr">
         <is>
           <t>Cost in Cr</t>
         </is>
       </c>
       <c r="E39" s="186" t="n"/>
-      <c r="K39" s="260" t="n"/>
+      <c r="K39" s="261" t="n"/>
     </row>
     <row r="40" ht="27.65" customFormat="1" customHeight="1" s="2">
       <c r="B40" s="145" t="n"/>
@@ -3175,12 +3184,12 @@
           <t>Channel+ Platform Name</t>
         </is>
       </c>
-      <c r="D40" s="229" t="inlineStr">
+      <c r="D40" s="230" t="inlineStr">
         <is>
           <t>Channel Proposal</t>
         </is>
       </c>
-      <c r="E40" s="230" t="n"/>
+      <c r="E40" s="231" t="n"/>
       <c r="F40" s="172" t="inlineStr">
         <is>
           <t>Eval Cost @ 2 Lakhs CPRP AI</t>
@@ -3189,22 +3198,22 @@
       <c r="K40" s="146" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="268" t="n"/>
+      <c r="B41" s="301" t="n"/>
       <c r="C41" s="114" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="D41" s="231">
+      <c r="D41" s="232">
         <f>'DBD One Pager-with Eval.'!D45</f>
         <v/>
       </c>
-      <c r="E41" s="232" t="n"/>
+      <c r="E41" s="233" t="n"/>
       <c r="F41" s="188">
-        <f>'DBD One Pager-with Eval.'!E45</f>
-        <v/>
-      </c>
-      <c r="K41" s="260" t="n"/>
+        <f>'DBD One Pager-with Eval.'!D47</f>
+        <v/>
+      </c>
+      <c r="K41" s="261" t="n"/>
     </row>
     <row r="42" ht="9" customHeight="1" thickBot="1">
       <c r="B42" s="147" t="n"/>
@@ -3249,72 +3258,72 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D13" sqref="D13"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col width="2" customWidth="1" style="245" min="1" max="1"/>
+    <col width="2" customWidth="1" style="246" min="1" max="1"/>
     <col width="2.81640625" bestFit="1" customWidth="1" style="117" min="2" max="2"/>
     <col width="38.453125" customWidth="1" style="118" min="3" max="3"/>
-    <col width="28.54296875" customWidth="1" style="245" min="4" max="4"/>
-    <col width="33" customWidth="1" style="245" min="5" max="5"/>
-    <col width="18" customWidth="1" style="245" min="6" max="10"/>
-    <col width="13.7265625" customWidth="1" style="245" min="11" max="12"/>
-    <col width="14.7265625" customWidth="1" style="245" min="13" max="13"/>
-    <col width="13.7265625" customWidth="1" style="245" min="14" max="14"/>
-    <col width="18.1796875" bestFit="1" customWidth="1" style="245" min="15" max="15"/>
-    <col width="29.453125" bestFit="1" customWidth="1" style="245" min="16" max="16"/>
-    <col width="31.54296875" bestFit="1" customWidth="1" style="245" min="17" max="18"/>
-    <col width="43.453125" bestFit="1" customWidth="1" style="245" min="19" max="19"/>
-    <col width="26.81640625" bestFit="1" customWidth="1" style="245" min="20" max="20"/>
-    <col width="9.1796875" customWidth="1" style="245" min="21" max="22"/>
-    <col width="14.453125" bestFit="1" customWidth="1" style="245" min="23" max="23"/>
-    <col width="9.1796875" customWidth="1" style="245" min="24" max="24"/>
-    <col width="9.1796875" customWidth="1" style="245" min="25" max="16384"/>
+    <col width="28.54296875" customWidth="1" style="246" min="4" max="4"/>
+    <col width="33" customWidth="1" style="246" min="5" max="5"/>
+    <col width="18" customWidth="1" style="246" min="6" max="10"/>
+    <col width="13.7265625" customWidth="1" style="246" min="11" max="12"/>
+    <col width="14.7265625" customWidth="1" style="246" min="13" max="13"/>
+    <col width="13.7265625" customWidth="1" style="246" min="14" max="14"/>
+    <col width="18.1796875" bestFit="1" customWidth="1" style="246" min="15" max="15"/>
+    <col width="29.453125" bestFit="1" customWidth="1" style="246" min="16" max="16"/>
+    <col width="31.54296875" bestFit="1" customWidth="1" style="246" min="17" max="18"/>
+    <col width="43.453125" bestFit="1" customWidth="1" style="246" min="19" max="19"/>
+    <col width="26.81640625" bestFit="1" customWidth="1" style="246" min="20" max="20"/>
+    <col width="9.1796875" customWidth="1" style="246" min="21" max="22"/>
+    <col width="14.453125" bestFit="1" customWidth="1" style="246" min="23" max="23"/>
+    <col width="9.1796875" customWidth="1" style="246" min="24" max="24"/>
+    <col width="9.1796875" customWidth="1" style="246" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" thickBot="1"/>
     <row r="2" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B2" s="236" t="inlineStr">
+      <c r="B2" s="237" t="inlineStr">
         <is>
           <t>BIGG BOSS 8 - 2025 Driven By: MPJ, Pran Foods Potato</t>
         </is>
       </c>
-      <c r="C2" s="237" t="n"/>
-      <c r="D2" s="237" t="n"/>
-      <c r="E2" s="237" t="n"/>
-      <c r="F2" s="237" t="n"/>
-      <c r="G2" s="237" t="n"/>
-      <c r="H2" s="237" t="n"/>
-      <c r="I2" s="237" t="n"/>
-      <c r="J2" s="237" t="n"/>
-      <c r="K2" s="237" t="n"/>
-      <c r="L2" s="237" t="n"/>
-      <c r="M2" s="237" t="n"/>
-      <c r="N2" s="237" t="n"/>
-      <c r="O2" s="237" t="n"/>
-      <c r="P2" s="238" t="n"/>
+      <c r="C2" s="238" t="n"/>
+      <c r="D2" s="238" t="n"/>
+      <c r="E2" s="238" t="n"/>
+      <c r="F2" s="238" t="n"/>
+      <c r="G2" s="238" t="n"/>
+      <c r="H2" s="238" t="n"/>
+      <c r="I2" s="238" t="n"/>
+      <c r="J2" s="238" t="n"/>
+      <c r="K2" s="238" t="n"/>
+      <c r="L2" s="238" t="n"/>
+      <c r="M2" s="238" t="n"/>
+      <c r="N2" s="238" t="n"/>
+      <c r="O2" s="238" t="n"/>
+      <c r="P2" s="239" t="n"/>
     </row>
     <row r="3" ht="23.25" customHeight="1">
       <c r="B3" s="195" t="n"/>
       <c r="C3" s="196" t="n"/>
       <c r="D3" s="196" t="n"/>
-      <c r="E3" s="239" t="inlineStr">
+      <c r="E3" s="240" t="inlineStr">
         <is>
           <t>Detailed Package</t>
         </is>
       </c>
-      <c r="F3" s="227" t="n"/>
-      <c r="G3" s="227" t="n"/>
-      <c r="H3" s="227" t="n"/>
-      <c r="I3" s="227" t="n"/>
-      <c r="J3" s="227" t="n"/>
+      <c r="F3" s="228" t="n"/>
+      <c r="G3" s="228" t="n"/>
+      <c r="H3" s="228" t="n"/>
+      <c r="I3" s="228" t="n"/>
+      <c r="J3" s="228" t="n"/>
       <c r="K3" s="196" t="n"/>
       <c r="L3" s="196" t="n"/>
-      <c r="M3" s="240" t="n"/>
-      <c r="N3" s="240" t="n"/>
-      <c r="O3" s="240" t="n"/>
+      <c r="M3" s="241" t="n"/>
+      <c r="N3" s="241" t="n"/>
+      <c r="O3" s="241" t="n"/>
       <c r="P3" s="198" t="n"/>
     </row>
     <row r="4">
@@ -3325,14 +3334,14 @@
       <c r="B5" s="120" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="251" t="inlineStr">
+      <c r="C5" s="252" t="inlineStr">
         <is>
           <t>Dance Reality Show where Indian classical to Bollywood to hip hop all genres will be presented in a refreshing avatar, with Mithun Chakraborty (MahaGuru), Mamata Shankar, Mouni Roy and Subhashree Ganguly as judges and host Ankush Hazra.</t>
         </is>
       </c>
       <c r="K5" s="199" t="n"/>
-      <c r="L5" s="259" t="n"/>
-      <c r="P5" s="260" t="n"/>
+      <c r="L5" s="260" t="n"/>
+      <c r="P5" s="261" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="120" t="n"/>
@@ -3350,14 +3359,14 @@
       <c r="B8" s="120" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="262" t="inlineStr">
+      <c r="C8" s="263" t="inlineStr">
         <is>
           <t>Property Schedule</t>
         </is>
       </c>
-      <c r="D8" s="263" t="n"/>
-      <c r="E8" s="263" t="n"/>
-      <c r="F8" s="232" t="n"/>
+      <c r="D8" s="264" t="n"/>
+      <c r="E8" s="264" t="n"/>
+      <c r="F8" s="233" t="n"/>
       <c r="P8" s="123" t="n"/>
     </row>
     <row r="9">
@@ -3448,7 +3457,7 @@
     </row>
     <row r="15">
       <c r="B15" s="120" t="n"/>
-      <c r="C15" s="245" t="n"/>
+      <c r="C15" s="246" t="n"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>Zee5</t>
@@ -3458,7 +3467,7 @@
     </row>
     <row r="16">
       <c r="B16" s="120" t="n"/>
-      <c r="C16" s="245" t="n"/>
+      <c r="C16" s="246" t="n"/>
       <c r="P16" s="123" t="n"/>
     </row>
     <row r="17">
@@ -3544,12 +3553,12 @@
       <c r="G21" s="152" t="n">
         <v>3.46</v>
       </c>
-      <c r="H21" s="242" t="inlineStr">
+      <c r="H21" s="243" t="inlineStr">
         <is>
           <t>Feb'23 - Oct'23</t>
         </is>
       </c>
-      <c r="I21" s="255" t="n"/>
+      <c r="I21" s="256" t="n"/>
       <c r="P21" s="123" t="n"/>
     </row>
     <row r="22">
@@ -3573,12 +3582,12 @@
       <c r="G22" s="152" t="n">
         <v>0.52</v>
       </c>
-      <c r="H22" s="242" t="inlineStr">
+      <c r="H22" s="243" t="inlineStr">
         <is>
           <t>Feb'23 - Oct'23</t>
         </is>
       </c>
-      <c r="I22" s="256" t="n"/>
+      <c r="I22" s="257" t="n"/>
       <c r="P22" s="123" t="n"/>
     </row>
     <row r="23">
@@ -3589,7 +3598,7 @@
       <c r="B24" s="120" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="261" t="inlineStr">
+      <c r="C24" s="262" t="inlineStr">
         <is>
           <t>Deal (Key Elements) Details : (TV+CTV)</t>
         </is>
@@ -3598,7 +3607,7 @@
     </row>
     <row r="25">
       <c r="B25" s="120" t="n"/>
-      <c r="C25" s="245" t="n"/>
+      <c r="C25" s="246" t="n"/>
       <c r="P25" s="123" t="n"/>
     </row>
     <row r="26">
@@ -3611,19 +3620,19 @@
         </is>
       </c>
       <c r="E26" s="214" t="n"/>
-      <c r="K26" s="257" t="inlineStr">
+      <c r="K26" s="258" t="inlineStr">
         <is>
           <t>Partner's Rate</t>
         </is>
       </c>
-      <c r="L26" s="232" t="n"/>
-      <c r="M26" s="246" t="inlineStr">
+      <c r="L26" s="233" t="n"/>
+      <c r="M26" s="247" t="inlineStr">
         <is>
           <t>Benchmark Rate</t>
         </is>
       </c>
-      <c r="N26" s="263" t="n"/>
-      <c r="O26" s="232" t="n"/>
+      <c r="N26" s="264" t="n"/>
+      <c r="O26" s="233" t="n"/>
       <c r="P26" s="123" t="n"/>
     </row>
     <row r="27">
@@ -3731,25 +3740,25 @@
         <f>I28*G28/10</f>
         <v/>
       </c>
-      <c r="K28" s="252">
+      <c r="K28" s="253">
         <f>L32/G32*10</f>
         <v/>
       </c>
-      <c r="L28" s="252">
+      <c r="L28" s="253">
         <f>2.85*10000000</f>
         <v/>
       </c>
-      <c r="M28" s="311" t="n">
+      <c r="M28" s="312" t="n">
         <v>2240</v>
       </c>
-      <c r="N28" s="312" t="n">
+      <c r="N28" s="313" t="n">
         <v>200000</v>
       </c>
-      <c r="O28" s="313">
+      <c r="O28" s="314">
         <f>J28*N28</f>
         <v/>
       </c>
-      <c r="P28" s="248" t="inlineStr">
+      <c r="P28" s="249" t="inlineStr">
         <is>
           <t>(data unavailable)</t>
         </is>
@@ -3787,17 +3796,17 @@
         <f>I29*G29/10</f>
         <v/>
       </c>
-      <c r="K29" s="253" t="n"/>
-      <c r="L29" s="253" t="n"/>
-      <c r="M29" s="311" t="n"/>
-      <c r="N29" s="312" t="n">
+      <c r="K29" s="254" t="n"/>
+      <c r="L29" s="254" t="n"/>
+      <c r="M29" s="312" t="n"/>
+      <c r="N29" s="313" t="n">
         <v>200000</v>
       </c>
-      <c r="O29" s="313">
+      <c r="O29" s="314">
         <f>J29*N29</f>
         <v/>
       </c>
-      <c r="P29" s="249" t="n"/>
+      <c r="P29" s="250" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="120" t="n"/>
@@ -3831,17 +3840,17 @@
         <f>I30*G30/10</f>
         <v/>
       </c>
-      <c r="K30" s="253" t="n"/>
-      <c r="L30" s="253" t="n"/>
-      <c r="M30" s="311" t="n"/>
-      <c r="N30" s="312" t="n">
+      <c r="K30" s="254" t="n"/>
+      <c r="L30" s="254" t="n"/>
+      <c r="M30" s="312" t="n"/>
+      <c r="N30" s="313" t="n">
         <v>200000</v>
       </c>
-      <c r="O30" s="313">
+      <c r="O30" s="314">
         <f>J30*N30</f>
         <v/>
       </c>
-      <c r="P30" s="249" t="n"/>
+      <c r="P30" s="250" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="120" t="n"/>
@@ -3875,19 +3884,19 @@
         <f>I31*G31/10</f>
         <v/>
       </c>
-      <c r="K31" s="254" t="n"/>
-      <c r="L31" s="254" t="n"/>
-      <c r="M31" s="311" t="n">
+      <c r="K31" s="255" t="n"/>
+      <c r="L31" s="255" t="n"/>
+      <c r="M31" s="312" t="n">
         <v>1100</v>
       </c>
-      <c r="N31" s="312" t="n">
+      <c r="N31" s="313" t="n">
         <v>200000</v>
       </c>
-      <c r="O31" s="313">
+      <c r="O31" s="314">
         <f>J31*N31</f>
         <v/>
       </c>
-      <c r="P31" s="250" t="n"/>
+      <c r="P31" s="251" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="120" t="n"/>
@@ -3929,15 +3938,15 @@
         <f>SUM(L28:L31)</f>
         <v/>
       </c>
-      <c r="M32" s="314">
+      <c r="M32" s="315">
         <f>SUM(M28:M31)</f>
         <v/>
       </c>
-      <c r="N32" s="314">
+      <c r="N32" s="315">
         <f>SUM(N28:N31)</f>
         <v/>
       </c>
-      <c r="O32" s="314">
+      <c r="O32" s="315">
         <f>SUM(O28:O31)</f>
         <v/>
       </c>
@@ -3953,16 +3962,16 @@
       <c r="D33" s="216" t="n"/>
       <c r="E33" s="216" t="n"/>
       <c r="F33" s="216" t="n"/>
-      <c r="G33" s="315" t="n"/>
-      <c r="H33" s="315" t="n"/>
+      <c r="G33" s="316" t="n"/>
+      <c r="H33" s="316" t="n"/>
       <c r="I33" s="216" t="n"/>
       <c r="J33" s="218" t="n"/>
-      <c r="K33" s="315" t="n"/>
-      <c r="L33" s="315" t="n"/>
-      <c r="M33" s="315" t="n"/>
-      <c r="N33" s="315" t="n"/>
-      <c r="O33" s="315" t="n"/>
-      <c r="P33" s="316" t="n"/>
+      <c r="K33" s="316" t="n"/>
+      <c r="L33" s="316" t="n"/>
+      <c r="M33" s="316" t="n"/>
+      <c r="N33" s="316" t="n"/>
+      <c r="O33" s="316" t="n"/>
+      <c r="P33" s="317" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="120" t="n"/>
@@ -3970,40 +3979,40 @@
       <c r="D34" s="216" t="n"/>
       <c r="E34" s="216" t="n"/>
       <c r="F34" s="216" t="n"/>
-      <c r="G34" s="315" t="n"/>
-      <c r="H34" s="315" t="n"/>
+      <c r="G34" s="316" t="n"/>
+      <c r="H34" s="316" t="n"/>
       <c r="I34" s="216" t="n"/>
-      <c r="J34" s="315" t="n"/>
-      <c r="K34" s="315" t="n"/>
-      <c r="L34" s="315" t="n"/>
-      <c r="M34" s="315" t="n"/>
-      <c r="N34" s="315" t="n"/>
-      <c r="O34" s="315" t="n"/>
-      <c r="P34" s="316" t="n"/>
+      <c r="J34" s="316" t="n"/>
+      <c r="K34" s="316" t="n"/>
+      <c r="L34" s="316" t="n"/>
+      <c r="M34" s="316" t="n"/>
+      <c r="N34" s="316" t="n"/>
+      <c r="O34" s="316" t="n"/>
+      <c r="P34" s="317" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="120" t="n">
         <v>7</v>
       </c>
-      <c r="C35" s="244" t="inlineStr">
+      <c r="C35" s="245" t="inlineStr">
         <is>
           <t>CTV +Mob</t>
         </is>
       </c>
       <c r="E35" s="214" t="n"/>
       <c r="F35" s="216" t="n"/>
-      <c r="G35" s="317" t="n"/>
-      <c r="H35" s="317" t="n"/>
-      <c r="I35" s="264" t="n"/>
-      <c r="J35" s="265" t="n"/>
-      <c r="K35" s="265" t="n"/>
-      <c r="L35" s="315" t="n"/>
-      <c r="M35" s="241" t="inlineStr">
+      <c r="G35" s="318" t="n"/>
+      <c r="H35" s="318" t="n"/>
+      <c r="I35" s="265" t="n"/>
+      <c r="J35" s="266" t="n"/>
+      <c r="K35" s="266" t="n"/>
+      <c r="L35" s="316" t="n"/>
+      <c r="M35" s="242" t="inlineStr">
         <is>
           <t>Benchmark</t>
         </is>
       </c>
-      <c r="N35" s="232" t="n"/>
+      <c r="N35" s="233" t="n"/>
       <c r="P35" s="123" t="n"/>
     </row>
     <row r="36" ht="31" customFormat="1" customHeight="1" s="118">
@@ -4120,12 +4129,12 @@
         <f>(K37*I37/1000)*10^6</f>
         <v/>
       </c>
-      <c r="M37" s="318" t="n"/>
+      <c r="M37" s="319" t="n"/>
       <c r="N37" s="192">
         <f>M37*G37/10^8</f>
         <v/>
       </c>
-      <c r="O37" s="242" t="inlineStr">
+      <c r="O37" s="243" t="inlineStr">
         <is>
           <t>(data unavailable)</t>
         </is>
@@ -4175,12 +4184,12 @@
         <f>(K38*I38/1000)*10^6</f>
         <v/>
       </c>
-      <c r="M38" s="318" t="n"/>
+      <c r="M38" s="319" t="n"/>
       <c r="N38" s="192">
         <f>M38*G38/10^8</f>
         <v/>
       </c>
-      <c r="O38" s="254" t="n"/>
+      <c r="O38" s="255" t="n"/>
       <c r="P38" s="123" t="n"/>
     </row>
     <row r="39">
@@ -4243,7 +4252,7 @@
       <c r="I40" s="216" t="n"/>
       <c r="J40" s="218" t="n"/>
       <c r="K40" s="216" t="n"/>
-      <c r="L40" s="315" t="n"/>
+      <c r="L40" s="316" t="n"/>
       <c r="M40" s="216" t="n"/>
       <c r="N40" s="216" t="n"/>
       <c r="O40" s="216" t="n"/>
@@ -4251,17 +4260,17 @@
     </row>
     <row r="41">
       <c r="B41" s="120" t="n"/>
-      <c r="C41" s="245" t="n"/>
+      <c r="C41" s="246" t="n"/>
       <c r="P41" s="123" t="n"/>
     </row>
     <row r="42">
       <c r="B42" s="120" t="n"/>
-      <c r="C42" s="245" t="n"/>
+      <c r="C42" s="246" t="n"/>
       <c r="P42" s="123" t="n"/>
     </row>
     <row r="43">
       <c r="B43" s="140" t="n"/>
-      <c r="C43" s="245" t="n"/>
+      <c r="C43" s="246" t="n"/>
       <c r="D43" s="203" t="n"/>
       <c r="P43" s="123" t="n"/>
     </row>
@@ -4270,12 +4279,12 @@
         <v>8</v>
       </c>
       <c r="C44" s="138" t="n"/>
-      <c r="D44" s="262" t="inlineStr">
+      <c r="D44" s="263" t="inlineStr">
         <is>
           <t>Channel Offer</t>
         </is>
       </c>
-      <c r="E44" s="262" t="inlineStr">
+      <c r="E44" s="263" t="inlineStr">
         <is>
           <t>Eval Cost</t>
         </is>
@@ -4323,7 +4332,7 @@
           <t>Total Cost in INR Cr</t>
         </is>
       </c>
-      <c r="D47" s="152">
+      <c r="D47" s="309">
         <f>(D45+D46)/10^7</f>
         <v/>
       </c>
@@ -4331,7 +4340,7 @@
         <f>SUM(E45:E46)/10^7</f>
         <v/>
       </c>
-      <c r="G47" s="308" t="n"/>
+      <c r="G47" s="226" t="n"/>
       <c r="P47" s="123" t="n"/>
     </row>
     <row r="48" ht="16" customHeight="1" thickBot="1">
@@ -4442,8 +4451,8 @@
   <cols>
     <col width="12.453125" customWidth="1" style="10" min="1" max="1"/>
     <col width="23.81640625" customWidth="1" style="10" min="2" max="2"/>
-    <col width="20" bestFit="1" customWidth="1" style="319" min="3" max="3"/>
-    <col width="17.1796875" bestFit="1" customWidth="1" style="319" min="4" max="4"/>
+    <col width="20" bestFit="1" customWidth="1" style="320" min="3" max="3"/>
+    <col width="17.1796875" bestFit="1" customWidth="1" style="320" min="4" max="4"/>
     <col width="20.1796875" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
     <col width="24.81640625" customWidth="1" style="10" min="6" max="6"/>
     <col width="22.81640625" bestFit="1" customWidth="1" style="11" min="7" max="8"/>
@@ -4453,16 +4462,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="285" t="inlineStr">
+      <c r="A1" s="286" t="inlineStr">
         <is>
           <t>IND Vs ENG T20s 2025| Co-Presenting Partner | Connected TV | MSIL</t>
         </is>
       </c>
-      <c r="B1" s="237" t="n"/>
-      <c r="C1" s="237" t="n"/>
-      <c r="D1" s="237" t="n"/>
-      <c r="E1" s="237" t="n"/>
-      <c r="F1" s="237" t="n"/>
+      <c r="B1" s="238" t="n"/>
+      <c r="C1" s="238" t="n"/>
+      <c r="D1" s="238" t="n"/>
+      <c r="E1" s="238" t="n"/>
+      <c r="F1" s="238" t="n"/>
       <c r="G1" s="108" t="inlineStr">
         <is>
           <t>Flex Rates</t>
@@ -4513,22 +4522,22 @@
       </c>
     </row>
     <row r="3" ht="16.4" customHeight="1">
-      <c r="A3" s="267" t="inlineStr">
+      <c r="A3" s="300" t="inlineStr">
         <is>
           <t>T20s</t>
         </is>
       </c>
-      <c r="B3" s="288" t="inlineStr">
+      <c r="B3" s="290" t="inlineStr">
         <is>
           <t>Live</t>
         </is>
       </c>
-      <c r="C3" s="320" t="inlineStr">
+      <c r="C3" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
       </c>
-      <c r="D3" s="321" t="n">
+      <c r="D3" s="322" t="n">
         <v>105</v>
       </c>
       <c r="E3" s="74">
@@ -4549,18 +4558,18 @@
       <c r="I3" s="94" t="n"/>
     </row>
     <row r="4" ht="16.4" customHeight="1">
-      <c r="A4" s="268" t="n"/>
-      <c r="B4" s="288" t="inlineStr">
+      <c r="A4" s="301" t="n"/>
+      <c r="B4" s="290" t="inlineStr">
         <is>
           <t>Live</t>
         </is>
       </c>
-      <c r="C4" s="320" t="inlineStr">
+      <c r="C4" s="321" t="inlineStr">
         <is>
           <t>Squeezeups</t>
         </is>
       </c>
-      <c r="D4" s="321" t="n">
+      <c r="D4" s="322" t="n">
         <v>5</v>
       </c>
       <c r="E4" s="74">
@@ -4581,18 +4590,18 @@
       <c r="I4" s="94" t="n"/>
     </row>
     <row r="5" ht="26.15" customHeight="1">
-      <c r="A5" s="268" t="n"/>
-      <c r="B5" s="288" t="inlineStr">
+      <c r="A5" s="301" t="n"/>
+      <c r="B5" s="290" t="inlineStr">
         <is>
           <t>CTL- 1 and 3 Premium Position (Countdown Intervention)</t>
         </is>
       </c>
-      <c r="C5" s="320" t="inlineStr">
+      <c r="C5" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
       </c>
-      <c r="D5" s="321" t="n">
+      <c r="D5" s="322" t="n">
         <v>40</v>
       </c>
       <c r="E5" s="74" t="n">
@@ -4612,18 +4621,18 @@
       <c r="I5" s="94" t="n"/>
     </row>
     <row r="6" ht="39" customHeight="1">
-      <c r="A6" s="268" t="n"/>
-      <c r="B6" s="288" t="inlineStr">
+      <c r="A6" s="301" t="n"/>
+      <c r="B6" s="290" t="inlineStr">
         <is>
           <t>Exclusive PPL segment- E-Vitara Gamechanger of the day</t>
         </is>
       </c>
-      <c r="C6" s="320" t="inlineStr">
+      <c r="C6" s="321" t="inlineStr">
         <is>
           <t>Segment + Op. Slate + SUP</t>
         </is>
       </c>
-      <c r="D6" s="320" t="inlineStr">
+      <c r="D6" s="321" t="inlineStr">
         <is>
           <t>ROS</t>
         </is>
@@ -4638,18 +4647,18 @@
       <c r="H6" s="101" t="n"/>
     </row>
     <row r="7" ht="26.5" customHeight="1" thickBot="1">
-      <c r="A7" s="269" t="n"/>
+      <c r="A7" s="302" t="n"/>
       <c r="B7" s="85" t="inlineStr">
         <is>
           <t>Exclusive VOD- E Vitara Gamechanger of the day</t>
         </is>
       </c>
-      <c r="C7" s="322" t="inlineStr">
+      <c r="C7" s="323" t="inlineStr">
         <is>
           <t>Brand mention (on Tray) + Op. Slate</t>
         </is>
       </c>
-      <c r="D7" s="322" t="inlineStr">
+      <c r="D7" s="323" t="inlineStr">
         <is>
           <t>ROS</t>
         </is>
@@ -4666,8 +4675,8 @@
     <row r="8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="71" t="n"/>
       <c r="B8" s="70" t="n"/>
-      <c r="C8" s="323" t="n"/>
-      <c r="D8" s="323" t="n"/>
+      <c r="C8" s="324" t="n"/>
+      <c r="D8" s="324" t="n"/>
       <c r="E8" s="68" t="n"/>
       <c r="F8" s="68" t="n"/>
       <c r="G8" s="98" t="n"/>
@@ -4677,24 +4686,24 @@
       </c>
     </row>
     <row r="9" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="C9" s="324" t="n"/>
-      <c r="D9" s="324" t="n"/>
+      <c r="C9" s="325" t="n"/>
+      <c r="D9" s="325" t="n"/>
       <c r="E9" s="64" t="n"/>
       <c r="F9" s="64" t="n"/>
       <c r="G9" s="63" t="n"/>
       <c r="H9" s="63" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="284" t="inlineStr">
+      <c r="A10" s="267" t="inlineStr">
         <is>
           <t>IND Vs ENG ODIs 2025|  Connected TV | MSIL</t>
         </is>
       </c>
-      <c r="B10" s="227" t="n"/>
-      <c r="C10" s="227" t="n"/>
-      <c r="D10" s="227" t="n"/>
-      <c r="E10" s="227" t="n"/>
-      <c r="F10" s="227" t="n"/>
+      <c r="B10" s="228" t="n"/>
+      <c r="C10" s="228" t="n"/>
+      <c r="D10" s="228" t="n"/>
+      <c r="E10" s="228" t="n"/>
+      <c r="F10" s="228" t="n"/>
       <c r="G10" s="10" t="n"/>
       <c r="H10" s="10" t="n"/>
     </row>
@@ -4737,7 +4746,7 @@
       </c>
     </row>
     <row r="12" ht="16.4" customHeight="1">
-      <c r="A12" s="288" t="inlineStr">
+      <c r="A12" s="290" t="inlineStr">
         <is>
           <t>ODIs</t>
         </is>
@@ -4747,7 +4756,7 @@
           <t>Live</t>
         </is>
       </c>
-      <c r="C12" s="325" t="inlineStr">
+      <c r="C12" s="326" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -4772,13 +4781,13 @@
       <c r="I12" s="94" t="n"/>
     </row>
     <row r="13" ht="16.4" customHeight="1">
-      <c r="A13" s="290" t="n"/>
+      <c r="A13" s="292" t="n"/>
       <c r="B13" s="74" t="inlineStr">
         <is>
           <t>Live</t>
         </is>
       </c>
-      <c r="C13" s="325" t="inlineStr">
+      <c r="C13" s="326" t="inlineStr">
         <is>
           <t>Squeezeups</t>
         </is>
@@ -4806,8 +4815,8 @@
     <row r="14" ht="13.5" customHeight="1" thickBot="1">
       <c r="A14" s="93" t="n"/>
       <c r="B14" s="92" t="n"/>
-      <c r="C14" s="326" t="n"/>
-      <c r="D14" s="326" t="n"/>
+      <c r="C14" s="327" t="n"/>
+      <c r="D14" s="327" t="n"/>
       <c r="E14" s="90" t="n"/>
       <c r="F14" s="90" t="n"/>
       <c r="G14" s="89" t="n"/>
@@ -4817,24 +4826,24 @@
       </c>
     </row>
     <row r="15" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="C15" s="324" t="n"/>
-      <c r="D15" s="324" t="n"/>
+      <c r="C15" s="325" t="n"/>
+      <c r="D15" s="325" t="n"/>
       <c r="E15" s="64" t="n"/>
       <c r="F15" s="64" t="n"/>
       <c r="G15" s="63" t="n"/>
       <c r="H15" s="63" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="284" t="inlineStr">
+      <c r="A16" s="267" t="inlineStr">
         <is>
           <t>IND Vs ENG T20s 2025| Co-Presenting Partner | Linear TV (SD+HD) | MSIL</t>
         </is>
       </c>
-      <c r="B16" s="227" t="n"/>
-      <c r="C16" s="227" t="n"/>
-      <c r="D16" s="227" t="n"/>
-      <c r="E16" s="227" t="n"/>
-      <c r="F16" s="227" t="n"/>
+      <c r="B16" s="228" t="n"/>
+      <c r="C16" s="228" t="n"/>
+      <c r="D16" s="228" t="n"/>
+      <c r="E16" s="228" t="n"/>
+      <c r="F16" s="228" t="n"/>
       <c r="G16" s="10" t="n"/>
       <c r="H16" s="10" t="n"/>
     </row>
@@ -4877,7 +4886,7 @@
       </c>
     </row>
     <row r="18" ht="16.4" customHeight="1">
-      <c r="A18" s="288" t="inlineStr">
+      <c r="A18" s="290" t="inlineStr">
         <is>
           <t>T20s</t>
         </is>
@@ -4887,7 +4896,7 @@
           <t>Live - (SD+HD)</t>
         </is>
       </c>
-      <c r="C18" s="320" t="inlineStr">
+      <c r="C18" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -4905,19 +4914,19 @@
       <c r="G18" s="86" t="n">
         <v>727000</v>
       </c>
-      <c r="H18" s="327">
+      <c r="H18" s="328">
         <f>G18*F18/10^8</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="64" customHeight="1">
-      <c r="A19" s="289" t="n"/>
+      <c r="A19" s="291" t="n"/>
       <c r="B19" s="74" t="inlineStr">
         <is>
           <t>CTL- 1 and 3 Premium Position (Countdown Intervention)</t>
         </is>
       </c>
-      <c r="C19" s="320" t="inlineStr">
+      <c r="C19" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -4936,19 +4945,19 @@
       <c r="G19" s="86" t="n">
         <v>363500</v>
       </c>
-      <c r="H19" s="327">
+      <c r="H19" s="328">
         <f>G19*F19/10^8</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="16.4" customHeight="1">
-      <c r="A20" s="289" t="n"/>
+      <c r="A20" s="291" t="n"/>
       <c r="B20" s="74" t="inlineStr">
         <is>
           <t>PPL - (SD+HD)</t>
         </is>
       </c>
-      <c r="C20" s="320" t="inlineStr">
+      <c r="C20" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -4968,13 +4977,13 @@
       <c r="H20" s="72" t="n"/>
     </row>
     <row r="21" ht="16.4" customHeight="1">
-      <c r="A21" s="289" t="n"/>
+      <c r="A21" s="291" t="n"/>
       <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Highlights - (SD+HD)</t>
         </is>
       </c>
-      <c r="C21" s="320" t="inlineStr">
+      <c r="C21" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -4994,13 +5003,13 @@
       <c r="H21" s="72" t="n"/>
     </row>
     <row r="22" ht="16.4" customHeight="1">
-      <c r="A22" s="289" t="n"/>
+      <c r="A22" s="291" t="n"/>
       <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Live- (SD+HD)</t>
         </is>
       </c>
-      <c r="C22" s="320" t="inlineStr">
+      <c r="C22" s="321" t="inlineStr">
         <is>
           <t>Squeezeups</t>
         </is>
@@ -5020,18 +5029,18 @@
       <c r="H22" s="72" t="n"/>
     </row>
     <row r="23" ht="54.65" customHeight="1" thickBot="1">
-      <c r="A23" s="290" t="n"/>
+      <c r="A23" s="292" t="n"/>
       <c r="B23" s="83" t="inlineStr">
         <is>
           <t>Exclusive PPL segment - SD + HD- E Vitara Gamechanger of the day</t>
         </is>
       </c>
-      <c r="C23" s="322" t="inlineStr">
+      <c r="C23" s="323" t="inlineStr">
         <is>
           <t>Segment + Op. Slate + SUP</t>
         </is>
       </c>
-      <c r="D23" s="322" t="n"/>
+      <c r="D23" s="323" t="n"/>
       <c r="E23" s="83" t="inlineStr">
         <is>
           <t>45s + 5s + 5s</t>
@@ -5044,8 +5053,8 @@
     <row r="24" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="71" t="n"/>
       <c r="B24" s="70" t="n"/>
-      <c r="C24" s="323" t="n"/>
-      <c r="D24" s="323" t="n"/>
+      <c r="C24" s="324" t="n"/>
+      <c r="D24" s="324" t="n"/>
       <c r="E24" s="68" t="n"/>
       <c r="F24" s="68" t="n"/>
       <c r="G24" s="67" t="n"/>
@@ -5056,24 +5065,24 @@
     </row>
     <row r="25" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
       <c r="A25" s="66" t="n"/>
-      <c r="C25" s="324" t="n"/>
-      <c r="D25" s="324" t="n"/>
+      <c r="C25" s="325" t="n"/>
+      <c r="D25" s="325" t="n"/>
       <c r="E25" s="64" t="n"/>
       <c r="F25" s="64" t="n"/>
       <c r="G25" s="63" t="n"/>
       <c r="H25" s="63" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="284" t="inlineStr">
+      <c r="A26" s="267" t="inlineStr">
         <is>
           <t>IND Vs ENG ODIs 2025|  Linear TV (SD+HD) |  MSIL</t>
         </is>
       </c>
-      <c r="B26" s="227" t="n"/>
-      <c r="C26" s="227" t="n"/>
-      <c r="D26" s="227" t="n"/>
-      <c r="E26" s="227" t="n"/>
-      <c r="F26" s="227" t="n"/>
+      <c r="B26" s="228" t="n"/>
+      <c r="C26" s="228" t="n"/>
+      <c r="D26" s="228" t="n"/>
+      <c r="E26" s="228" t="n"/>
+      <c r="F26" s="228" t="n"/>
       <c r="G26" s="10" t="n"/>
       <c r="H26" s="10" t="n"/>
     </row>
@@ -5116,7 +5125,7 @@
       </c>
     </row>
     <row r="28" ht="16.4" customHeight="1">
-      <c r="A28" s="288" t="inlineStr">
+      <c r="A28" s="290" t="inlineStr">
         <is>
           <t>ODIs</t>
         </is>
@@ -5126,7 +5135,7 @@
           <t>Live - (SD+HD)</t>
         </is>
       </c>
-      <c r="C28" s="320" t="inlineStr">
+      <c r="C28" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -5150,13 +5159,13 @@
       </c>
     </row>
     <row r="29" ht="26.15" customHeight="1">
-      <c r="A29" s="289" t="n"/>
+      <c r="A29" s="291" t="n"/>
       <c r="B29" s="74" t="inlineStr">
         <is>
           <t xml:space="preserve">CTL- 1,2,3 and 4 Premium Position </t>
         </is>
       </c>
-      <c r="C29" s="320" t="inlineStr">
+      <c r="C29" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -5180,13 +5189,13 @@
       </c>
     </row>
     <row r="30" ht="16.4" customHeight="1">
-      <c r="A30" s="289" t="n"/>
+      <c r="A30" s="291" t="n"/>
       <c r="B30" s="74" t="inlineStr">
         <is>
           <t>PPL - (SD+HD)</t>
         </is>
       </c>
-      <c r="C30" s="320" t="inlineStr">
+      <c r="C30" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -5206,13 +5215,13 @@
       <c r="H30" s="72" t="n"/>
     </row>
     <row r="31" ht="16.4" customHeight="1">
-      <c r="A31" s="289" t="n"/>
+      <c r="A31" s="291" t="n"/>
       <c r="B31" s="74" t="inlineStr">
         <is>
           <t>Highlights - (SD+HD)</t>
         </is>
       </c>
-      <c r="C31" s="320" t="inlineStr">
+      <c r="C31" s="321" t="inlineStr">
         <is>
           <t>FCT</t>
         </is>
@@ -5232,13 +5241,13 @@
       <c r="H31" s="72" t="n"/>
     </row>
     <row r="32" ht="16.4" customHeight="1" thickBot="1">
-      <c r="A32" s="290" t="n"/>
+      <c r="A32" s="292" t="n"/>
       <c r="B32" s="74" t="inlineStr">
         <is>
           <t>Live- (SD+HD)</t>
         </is>
       </c>
-      <c r="C32" s="320" t="inlineStr">
+      <c r="C32" s="321" t="inlineStr">
         <is>
           <t>Squeezeups</t>
         </is>
@@ -5260,8 +5269,8 @@
     <row r="33" ht="13.5" customHeight="1" thickBot="1">
       <c r="A33" s="71" t="n"/>
       <c r="B33" s="70" t="n"/>
-      <c r="C33" s="323" t="n"/>
-      <c r="D33" s="323" t="n"/>
+      <c r="C33" s="324" t="n"/>
+      <c r="D33" s="324" t="n"/>
       <c r="E33" s="68" t="n"/>
       <c r="F33" s="68" t="n"/>
       <c r="G33" s="67" t="n"/>
@@ -5272,8 +5281,8 @@
     </row>
     <row r="34" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
       <c r="A34" s="66" t="n"/>
-      <c r="C34" s="324" t="n"/>
-      <c r="D34" s="324" t="n"/>
+      <c r="C34" s="325" t="n"/>
+      <c r="D34" s="325" t="n"/>
       <c r="E34" s="64" t="n"/>
       <c r="F34" s="64" t="n"/>
       <c r="G34" s="63" t="n"/>
@@ -5285,31 +5294,31 @@
           <t>IND Vs ENG T20s 2025| CTV| Masthead | MSIL | Co-Presenting Partner</t>
         </is>
       </c>
-      <c r="B35" s="237" t="n"/>
-      <c r="C35" s="237" t="n"/>
-      <c r="D35" s="237" t="n"/>
-      <c r="E35" s="238" t="n"/>
+      <c r="B35" s="238" t="n"/>
+      <c r="C35" s="238" t="n"/>
+      <c r="D35" s="238" t="n"/>
+      <c r="E35" s="239" t="n"/>
       <c r="F35" s="109" t="n"/>
       <c r="G35" s="62" t="n"/>
       <c r="H35" s="62" t="n"/>
     </row>
     <row r="36" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="A36" s="291" t="inlineStr">
+      <c r="A36" s="268" t="inlineStr">
         <is>
           <t>Format</t>
         </is>
       </c>
-      <c r="B36" s="291" t="inlineStr">
+      <c r="B36" s="268" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="C36" s="291" t="inlineStr">
+      <c r="C36" s="268" t="inlineStr">
         <is>
           <t>Ad Assets</t>
         </is>
       </c>
-      <c r="D36" s="291" t="inlineStr">
+      <c r="D36" s="268" t="inlineStr">
         <is>
           <t>No of Matches/Days^</t>
         </is>
@@ -5319,7 +5328,7 @@
           <t>Net Cost</t>
         </is>
       </c>
-      <c r="F36" s="301" t="inlineStr">
+      <c r="F36" s="282" t="inlineStr">
         <is>
           <t>Est. Imps (in Mn.)</t>
         </is>
@@ -5328,16 +5337,16 @@
       <c r="H36" s="62" t="n"/>
     </row>
     <row r="37" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="A37" s="292" t="n"/>
-      <c r="B37" s="292" t="n"/>
-      <c r="C37" s="292" t="n"/>
-      <c r="D37" s="292" t="n"/>
-      <c r="E37" s="291" t="inlineStr">
+      <c r="A37" s="269" t="n"/>
+      <c r="B37" s="269" t="n"/>
+      <c r="C37" s="269" t="n"/>
+      <c r="D37" s="269" t="n"/>
+      <c r="E37" s="268" t="inlineStr">
         <is>
           <t>(INR Cr.)</t>
         </is>
       </c>
-      <c r="F37" s="302" t="n"/>
+      <c r="F37" s="283" t="n"/>
       <c r="G37" s="51" t="n"/>
       <c r="H37" s="50" t="inlineStr">
         <is>
@@ -5378,14 +5387,14 @@
       </c>
     </row>
     <row r="39" ht="15" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="A39" s="296" t="inlineStr">
+      <c r="A39" s="297" t="inlineStr">
         <is>
           <t>Total Cost (Net) : INR Cr</t>
         </is>
       </c>
-      <c r="B39" s="237" t="n"/>
-      <c r="C39" s="237" t="n"/>
-      <c r="D39" s="237" t="n"/>
+      <c r="B39" s="238" t="n"/>
+      <c r="C39" s="238" t="n"/>
+      <c r="D39" s="238" t="n"/>
       <c r="E39" s="9">
         <f>E38</f>
         <v/>
@@ -5405,16 +5414,16 @@
       <c r="H40" s="55" t="n"/>
     </row>
     <row r="41" ht="21.65" customFormat="1" customHeight="1" s="54" thickBot="1">
-      <c r="A41" s="297" t="inlineStr">
+      <c r="A41" s="298" t="inlineStr">
         <is>
           <t xml:space="preserve"> IND v ENG T20s and ODIs 2025 | MSIL | HH Web | iOS and 50K+ cohort</t>
         </is>
       </c>
-      <c r="B41" s="237" t="n"/>
-      <c r="C41" s="237" t="n"/>
-      <c r="D41" s="237" t="n"/>
-      <c r="E41" s="237" t="n"/>
-      <c r="F41" s="237" t="n"/>
+      <c r="B41" s="238" t="n"/>
+      <c r="C41" s="238" t="n"/>
+      <c r="D41" s="238" t="n"/>
+      <c r="E41" s="238" t="n"/>
+      <c r="F41" s="238" t="n"/>
     </row>
     <row r="42" ht="15.65" customFormat="1" customHeight="1" s="33">
       <c r="A42" s="53" t="inlineStr">
@@ -5465,12 +5474,12 @@
           <t>Live</t>
         </is>
       </c>
-      <c r="C43" s="328" t="inlineStr">
+      <c r="C43" s="329" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
-      <c r="D43" s="328" t="inlineStr">
+      <c r="D43" s="329" t="inlineStr">
         <is>
           <t>Mid rolls</t>
         </is>
@@ -5478,13 +5487,13 @@
       <c r="E43" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="329" t="n">
+      <c r="F43" s="330" t="n">
         <v>75</v>
       </c>
       <c r="G43" s="45" t="n">
         <v>350</v>
       </c>
-      <c r="H43" s="330">
+      <c r="H43" s="331">
         <f>G43*F43/10^4</f>
         <v/>
       </c>
@@ -5500,12 +5509,12 @@
           <t>Live</t>
         </is>
       </c>
-      <c r="C44" s="331" t="inlineStr">
+      <c r="C44" s="332" t="inlineStr">
         <is>
           <t>Video</t>
         </is>
       </c>
-      <c r="D44" s="331" t="inlineStr">
+      <c r="D44" s="332" t="inlineStr">
         <is>
           <t>Mid rolls</t>
         </is>
@@ -5513,13 +5522,13 @@
       <c r="E44" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="F44" s="332" t="n">
+      <c r="F44" s="333" t="n">
         <v>40</v>
       </c>
       <c r="G44" s="39" t="n">
         <v>350</v>
       </c>
-      <c r="H44" s="333">
+      <c r="H44" s="334">
         <f>G44*F44/10^4</f>
         <v/>
       </c>
@@ -5527,12 +5536,12 @@
     <row r="45" ht="16" customFormat="1" customHeight="1" s="33" thickBot="1">
       <c r="A45" s="37" t="n"/>
       <c r="B45" s="36" t="n"/>
-      <c r="C45" s="334" t="n"/>
-      <c r="D45" s="334" t="n"/>
-      <c r="E45" s="334" t="n"/>
-      <c r="F45" s="335" t="n"/>
-      <c r="G45" s="336" t="n"/>
-      <c r="H45" s="336">
+      <c r="C45" s="335" t="n"/>
+      <c r="D45" s="335" t="n"/>
+      <c r="E45" s="335" t="n"/>
+      <c r="F45" s="336" t="n"/>
+      <c r="G45" s="337" t="n"/>
+      <c r="H45" s="337">
         <f>SUM(H43:H44)</f>
         <v/>
       </c>
@@ -5540,25 +5549,25 @@
     <row r="46" ht="16" customFormat="1" customHeight="1" s="26" thickBot="1">
       <c r="A46" s="32" t="n"/>
       <c r="B46" s="29" t="n"/>
-      <c r="C46" s="337" t="n"/>
-      <c r="D46" s="337" t="n"/>
-      <c r="E46" s="337" t="n"/>
-      <c r="F46" s="338" t="n"/>
-      <c r="G46" s="339" t="n"/>
-      <c r="H46" s="339" t="n"/>
+      <c r="C46" s="338" t="n"/>
+      <c r="D46" s="338" t="n"/>
+      <c r="E46" s="338" t="n"/>
+      <c r="F46" s="339" t="n"/>
+      <c r="G46" s="340" t="n"/>
+      <c r="H46" s="340" t="n"/>
     </row>
     <row r="47" ht="19" customFormat="1" customHeight="1" s="26" thickBot="1">
-      <c r="A47" s="295" t="inlineStr">
+      <c r="A47" s="296" t="inlineStr">
         <is>
           <t>Total Net Cost (in Cr.)</t>
         </is>
       </c>
-      <c r="B47" s="237" t="n"/>
-      <c r="C47" s="237" t="n"/>
-      <c r="D47" s="237" t="n"/>
-      <c r="E47" s="237" t="n"/>
-      <c r="F47" s="237" t="n"/>
-      <c r="G47" s="340" t="n"/>
+      <c r="B47" s="238" t="n"/>
+      <c r="C47" s="238" t="n"/>
+      <c r="D47" s="238" t="n"/>
+      <c r="E47" s="238" t="n"/>
+      <c r="F47" s="238" t="n"/>
+      <c r="G47" s="341" t="n"/>
       <c r="H47" s="30">
         <f>SUM(H8,H14,H24,H33,H38,H45)</f>
         <v/>
@@ -5567,12 +5576,12 @@
     <row r="48" ht="16" customFormat="1" customHeight="1" s="26" thickBot="1">
       <c r="A48" s="29" t="n"/>
       <c r="B48" s="29" t="n"/>
-      <c r="C48" s="337" t="n"/>
-      <c r="D48" s="337" t="n"/>
-      <c r="E48" s="337" t="n"/>
-      <c r="F48" s="338" t="n"/>
-      <c r="G48" s="339" t="n"/>
-      <c r="H48" s="339" t="n"/>
+      <c r="C48" s="338" t="n"/>
+      <c r="D48" s="338" t="n"/>
+      <c r="E48" s="338" t="n"/>
+      <c r="F48" s="339" t="n"/>
+      <c r="G48" s="340" t="n"/>
+      <c r="H48" s="340" t="n"/>
     </row>
     <row r="49" ht="21.65" customHeight="1" thickBot="1">
       <c r="A49" s="293" t="inlineStr">
@@ -5580,47 +5589,47 @@
           <t>Value Adds</t>
         </is>
       </c>
-      <c r="B49" s="237" t="n"/>
-      <c r="C49" s="237" t="n"/>
-      <c r="D49" s="237" t="n"/>
-      <c r="E49" s="237" t="n"/>
-      <c r="F49" s="237" t="n"/>
+      <c r="B49" s="238" t="n"/>
+      <c r="C49" s="238" t="n"/>
+      <c r="D49" s="238" t="n"/>
+      <c r="E49" s="238" t="n"/>
+      <c r="F49" s="238" t="n"/>
       <c r="G49" s="10" t="n"/>
       <c r="H49" s="10" t="n"/>
     </row>
     <row r="50" ht="21" customHeight="1">
-      <c r="A50" s="303" t="inlineStr">
+      <c r="A50" s="284" t="inlineStr">
         <is>
           <t>India V England ODIs and T20s_MSIL</t>
         </is>
       </c>
-      <c r="B50" s="304" t="n"/>
-      <c r="C50" s="304" t="n"/>
-      <c r="D50" s="304" t="n"/>
-      <c r="E50" s="304" t="n"/>
-      <c r="F50" s="304" t="n"/>
+      <c r="B50" s="285" t="n"/>
+      <c r="C50" s="285" t="n"/>
+      <c r="D50" s="285" t="n"/>
+      <c r="E50" s="285" t="n"/>
+      <c r="F50" s="285" t="n"/>
       <c r="G50" s="10" t="n"/>
       <c r="H50" s="10" t="n"/>
     </row>
     <row r="51" ht="15.65" customHeight="1">
-      <c r="A51" s="281" t="inlineStr">
+      <c r="A51" s="276" t="inlineStr">
         <is>
           <t>Asset</t>
         </is>
       </c>
-      <c r="B51" s="280" t="n"/>
-      <c r="C51" s="283" t="inlineStr">
+      <c r="B51" s="273" t="n"/>
+      <c r="C51" s="305" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="D51" s="286" t="inlineStr">
+      <c r="D51" s="270" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
       <c r="E51" s="271" t="n"/>
-      <c r="F51" s="283" t="inlineStr">
+      <c r="F51" s="305" t="inlineStr">
         <is>
           <t>No Of Matches</t>
         </is>
@@ -5634,58 +5643,58 @@
           <t xml:space="preserve">Exclusive PPL Segment- Gamechanger of the Match </t>
         </is>
       </c>
-      <c r="B52" s="273" t="n"/>
-      <c r="C52" s="279" t="inlineStr">
+      <c r="B52" s="278" t="n"/>
+      <c r="C52" s="287" t="inlineStr">
         <is>
           <t>HH+Web, CTV and Linear TV</t>
         </is>
       </c>
-      <c r="D52" s="279" t="inlineStr">
+      <c r="D52" s="287" t="inlineStr">
         <is>
           <t xml:space="preserve">Segment </t>
         </is>
       </c>
-      <c r="E52" s="280" t="n"/>
-      <c r="F52" s="279" t="n">
+      <c r="E52" s="273" t="n"/>
+      <c r="F52" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G52" s="10" t="n"/>
       <c r="H52" s="10" t="n"/>
     </row>
     <row r="53" ht="15.65" customHeight="1">
-      <c r="A53" s="274" t="n"/>
-      <c r="B53" s="275" t="n"/>
-      <c r="C53" s="287" t="n"/>
-      <c r="D53" s="270" t="inlineStr">
+      <c r="A53" s="303" t="n"/>
+      <c r="B53" s="304" t="n"/>
+      <c r="C53" s="288" t="n"/>
+      <c r="D53" s="295" t="inlineStr">
         <is>
           <t>Openig Slate</t>
         </is>
       </c>
       <c r="E53" s="271" t="n"/>
-      <c r="F53" s="279" t="n">
+      <c r="F53" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G53" s="10" t="n"/>
       <c r="H53" s="10" t="n"/>
     </row>
     <row r="54" ht="15.65" customHeight="1">
-      <c r="A54" s="276" t="n"/>
-      <c r="B54" s="277" t="n"/>
-      <c r="C54" s="282" t="n"/>
-      <c r="D54" s="270" t="inlineStr">
+      <c r="A54" s="280" t="n"/>
+      <c r="B54" s="281" t="n"/>
+      <c r="C54" s="289" t="n"/>
+      <c r="D54" s="295" t="inlineStr">
         <is>
           <t>Squeeze-Up</t>
         </is>
       </c>
       <c r="E54" s="271" t="n"/>
-      <c r="F54" s="279" t="n">
+      <c r="F54" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G54" s="10" t="n"/>
       <c r="H54" s="10" t="n"/>
     </row>
     <row r="55" ht="15.65" customHeight="1">
-      <c r="A55" s="278" t="inlineStr">
+      <c r="A55" s="279" t="inlineStr">
         <is>
           <t>Total Ideation Cost</t>
         </is>
@@ -5699,24 +5708,24 @@
       <c r="H55" s="10" t="n"/>
     </row>
     <row r="56" ht="15.65" customHeight="1">
-      <c r="A56" s="281" t="inlineStr">
+      <c r="A56" s="276" t="inlineStr">
         <is>
           <t>Asset</t>
         </is>
       </c>
-      <c r="B56" s="280" t="n"/>
-      <c r="C56" s="283" t="inlineStr">
+      <c r="B56" s="273" t="n"/>
+      <c r="C56" s="305" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="D56" s="283" t="inlineStr">
+      <c r="D56" s="305" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="E56" s="280" t="n"/>
-      <c r="F56" s="283" t="inlineStr">
+      <c r="E56" s="273" t="n"/>
+      <c r="F56" s="305" t="inlineStr">
         <is>
           <t>No Of Matches</t>
         </is>
@@ -5730,42 +5739,42 @@
           <t>Exclusive VOD</t>
         </is>
       </c>
-      <c r="B57" s="273" t="n"/>
-      <c r="C57" s="279" t="inlineStr">
+      <c r="B57" s="278" t="n"/>
+      <c r="C57" s="287" t="inlineStr">
         <is>
           <t>HH+Web and CTV</t>
         </is>
       </c>
-      <c r="D57" s="279" t="inlineStr">
+      <c r="D57" s="287" t="inlineStr">
         <is>
           <t xml:space="preserve">Brand mention (on Tray) </t>
         </is>
       </c>
-      <c r="E57" s="280" t="n"/>
-      <c r="F57" s="279" t="n">
+      <c r="E57" s="273" t="n"/>
+      <c r="F57" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G57" s="10" t="n"/>
       <c r="H57" s="10" t="n"/>
     </row>
     <row r="58" ht="15.65" customHeight="1">
-      <c r="A58" s="276" t="n"/>
-      <c r="B58" s="277" t="n"/>
-      <c r="C58" s="282" t="n"/>
-      <c r="D58" s="279" t="inlineStr">
+      <c r="A58" s="280" t="n"/>
+      <c r="B58" s="281" t="n"/>
+      <c r="C58" s="289" t="n"/>
+      <c r="D58" s="287" t="inlineStr">
         <is>
           <t>Branding on Op. Slate</t>
         </is>
       </c>
-      <c r="E58" s="280" t="n"/>
-      <c r="F58" s="279" t="n">
+      <c r="E58" s="273" t="n"/>
+      <c r="F58" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G58" s="10" t="n"/>
       <c r="H58" s="10" t="n"/>
     </row>
     <row r="59" ht="15.65" customHeight="1">
-      <c r="A59" s="278" t="inlineStr">
+      <c r="A59" s="279" t="inlineStr">
         <is>
           <t>Total Ideation Cost</t>
         </is>
@@ -5779,24 +5788,24 @@
       <c r="H59" s="10" t="n"/>
     </row>
     <row r="60" ht="15.65" customHeight="1">
-      <c r="A60" s="281" t="inlineStr">
+      <c r="A60" s="276" t="inlineStr">
         <is>
           <t>Asset</t>
         </is>
       </c>
-      <c r="B60" s="280" t="n"/>
-      <c r="C60" s="283" t="inlineStr">
+      <c r="B60" s="273" t="n"/>
+      <c r="C60" s="305" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="D60" s="286" t="inlineStr">
+      <c r="D60" s="270" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
       <c r="E60" s="271" t="n"/>
-      <c r="F60" s="283" t="inlineStr">
+      <c r="F60" s="305" t="inlineStr">
         <is>
           <t>No Of Matches</t>
         </is>
@@ -5805,31 +5814,31 @@
       <c r="H60" s="10" t="n"/>
     </row>
     <row r="61" ht="31" customHeight="1">
-      <c r="A61" s="300" t="inlineStr">
+      <c r="A61" s="277" t="inlineStr">
         <is>
           <t>AR Integration</t>
         </is>
       </c>
-      <c r="B61" s="273" t="n"/>
+      <c r="B61" s="278" t="n"/>
       <c r="C61" s="24" t="inlineStr">
         <is>
           <t>HH+Web, CTV and Linear TV</t>
         </is>
       </c>
-      <c r="D61" s="270" t="inlineStr">
+      <c r="D61" s="295" t="inlineStr">
         <is>
           <t>In-Studio AR Integration for E-Vitara</t>
         </is>
       </c>
       <c r="E61" s="271" t="n"/>
-      <c r="F61" s="279" t="n">
+      <c r="F61" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G61" s="10" t="n"/>
       <c r="H61" s="10" t="n"/>
     </row>
     <row r="62" ht="15.65" customHeight="1">
-      <c r="A62" s="278" t="inlineStr">
+      <c r="A62" s="279" t="inlineStr">
         <is>
           <t>Total Ideation Cost</t>
         </is>
@@ -5843,24 +5852,24 @@
       <c r="H62" s="10" t="n"/>
     </row>
     <row r="63" ht="15.65" customHeight="1">
-      <c r="A63" s="281" t="inlineStr">
+      <c r="A63" s="276" t="inlineStr">
         <is>
           <t>Asset</t>
         </is>
       </c>
-      <c r="B63" s="280" t="n"/>
-      <c r="C63" s="283" t="inlineStr">
+      <c r="B63" s="273" t="n"/>
+      <c r="C63" s="305" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="D63" s="286" t="inlineStr">
+      <c r="D63" s="270" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
       <c r="E63" s="271" t="n"/>
-      <c r="F63" s="283" t="inlineStr">
+      <c r="F63" s="305" t="inlineStr">
         <is>
           <t>No Of Matches</t>
         </is>
@@ -5874,26 +5883,26 @@
           <t>Talent and Production cost</t>
         </is>
       </c>
-      <c r="B64" s="280" t="n"/>
+      <c r="B64" s="273" t="n"/>
       <c r="C64" s="24" t="inlineStr">
         <is>
           <t>HH+Web, CTV and Linear TV</t>
         </is>
       </c>
-      <c r="D64" s="279" t="inlineStr">
+      <c r="D64" s="287" t="inlineStr">
         <is>
           <t>CTL countdown intervention</t>
         </is>
       </c>
-      <c r="E64" s="280" t="n"/>
-      <c r="F64" s="279" t="n">
+      <c r="E64" s="273" t="n"/>
+      <c r="F64" s="287" t="n">
         <v>5</v>
       </c>
       <c r="G64" s="10" t="n"/>
       <c r="H64" s="10" t="n"/>
     </row>
     <row r="65" ht="15.65" customHeight="1">
-      <c r="A65" s="278" t="inlineStr">
+      <c r="A65" s="279" t="inlineStr">
         <is>
           <t>Total Ideation Cost</t>
         </is>
@@ -5907,16 +5916,16 @@
       <c r="H65" s="10" t="n"/>
     </row>
     <row r="66" ht="16" customHeight="1" thickBot="1">
-      <c r="A66" s="298" t="inlineStr">
+      <c r="A66" s="274" t="inlineStr">
         <is>
           <t>Total Net cost (in Cr.)</t>
         </is>
       </c>
-      <c r="B66" s="299" t="n"/>
-      <c r="C66" s="299" t="n"/>
-      <c r="D66" s="299" t="n"/>
-      <c r="E66" s="299" t="n"/>
-      <c r="F66" s="299" t="n"/>
+      <c r="B66" s="275" t="n"/>
+      <c r="C66" s="275" t="n"/>
+      <c r="D66" s="275" t="n"/>
+      <c r="E66" s="275" t="n"/>
+      <c r="F66" s="275" t="n"/>
       <c r="G66" s="10" t="n"/>
       <c r="H66" s="10" t="n"/>
     </row>
@@ -5925,18 +5934,18 @@
       <c r="H67" s="10" t="n"/>
     </row>
     <row r="68" ht="27" customHeight="1" thickBot="1">
-      <c r="A68" s="266" t="inlineStr">
+      <c r="A68" s="299" t="inlineStr">
         <is>
           <t>PLEASE NOTE THAT THE VALUE ADDS WORTH 3.21 WILL BE ABSORBED SINCE MSIL WILL COME IN AS A CO-PRESENTING PARTNER on T20s AND THE BRAND'S INVESTMENT ON ODIs.</t>
         </is>
       </c>
-      <c r="B68" s="237" t="n"/>
-      <c r="C68" s="237" t="n"/>
-      <c r="D68" s="237" t="n"/>
-      <c r="E68" s="237" t="n"/>
-      <c r="F68" s="237" t="n"/>
-      <c r="G68" s="237" t="n"/>
-      <c r="H68" s="238" t="n"/>
+      <c r="B68" s="238" t="n"/>
+      <c r="C68" s="238" t="n"/>
+      <c r="D68" s="238" t="n"/>
+      <c r="E68" s="238" t="n"/>
+      <c r="F68" s="238" t="n"/>
+      <c r="G68" s="238" t="n"/>
+      <c r="H68" s="239" t="n"/>
     </row>
     <row r="69" customFormat="1" s="21">
       <c r="A69" s="22" t="inlineStr">
@@ -5945,7 +5954,7 @@
         </is>
       </c>
       <c r="B69" s="22" t="n"/>
-      <c r="C69" s="341" t="n"/>
+      <c r="C69" s="342" t="n"/>
       <c r="G69" s="19" t="n"/>
       <c r="H69" s="19" t="n"/>
     </row>
@@ -5955,7 +5964,7 @@
           <t>^ Indicative; Subject to Tournament Schedule; Total FCT/Exposures shall vary accordingly</t>
         </is>
       </c>
-      <c r="C70" s="341" t="n"/>
+      <c r="C70" s="342" t="n"/>
       <c r="F70" s="21" t="n"/>
       <c r="G70" s="19" t="n"/>
       <c r="H70" s="19" t="n"/>
@@ -5966,7 +5975,7 @@
           <t>* Pre Roll duration - upto 15 sec is allowed</t>
         </is>
       </c>
-      <c r="C71" s="341" t="n"/>
+      <c r="C71" s="342" t="n"/>
       <c r="F71" s="21" t="n"/>
       <c r="G71" s="19" t="n"/>
       <c r="H71" s="19" t="n"/>
@@ -6133,8 +6142,8 @@
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A55:F55"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A55:F55"/>
     <mergeCell ref="A57:B58"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="D52:E52"/>
@@ -6151,14 +6160,14 @@
     <mergeCell ref="A18:A23"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D58:E58"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A63:B63"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A63:B63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="A68:H68"/>
@@ -6193,18 +6202,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="10.5"/>
   <cols>
-    <col width="8.81640625" customWidth="1" style="307" min="1" max="1"/>
-    <col width="13.1796875" customWidth="1" style="307" min="2" max="2"/>
-    <col width="12.81640625" customWidth="1" style="307" min="3" max="3"/>
-    <col width="10" bestFit="1" customWidth="1" style="307" min="4" max="4"/>
-    <col width="8.81640625" bestFit="1" customWidth="1" style="307" min="5" max="5"/>
-    <col width="7.54296875" bestFit="1" customWidth="1" style="307" min="6" max="6"/>
-    <col width="8.81640625" customWidth="1" style="307" min="7" max="7"/>
-    <col width="8.81640625" customWidth="1" style="307" min="8" max="16384"/>
+    <col width="8.81640625" customWidth="1" style="308" min="1" max="1"/>
+    <col width="13.1796875" customWidth="1" style="308" min="2" max="2"/>
+    <col width="12.81640625" customWidth="1" style="308" min="3" max="3"/>
+    <col width="10" bestFit="1" customWidth="1" style="308" min="4" max="4"/>
+    <col width="8.81640625" bestFit="1" customWidth="1" style="308" min="5" max="5"/>
+    <col width="7.54296875" bestFit="1" customWidth="1" style="308" min="6" max="6"/>
+    <col width="8.81640625" customWidth="1" style="308" min="7" max="7"/>
+    <col width="8.81640625" customWidth="1" style="308" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="306" t="inlineStr">
+      <c r="B2" s="307" t="inlineStr">
         <is>
           <t>COST BENCHMARKING</t>
         </is>
@@ -6301,7 +6310,7 @@
           <t>Sports 18</t>
         </is>
       </c>
-      <c r="F7" s="342" t="n">
+      <c r="F7" s="343" t="n">
         <v>325416.6666666667</v>
       </c>
       <c r="G7" s="158" t="n"/>
@@ -6334,7 +6343,7 @@
           <t>Star Sports</t>
         </is>
       </c>
-      <c r="F8" s="343" t="n">
+      <c r="F8" s="344" t="n">
         <v>366086.3001753871</v>
       </c>
       <c r="G8" s="158" t="n"/>
@@ -6367,7 +6376,7 @@
           <t>Star Sports</t>
         </is>
       </c>
-      <c r="F9" s="343" t="n">
+      <c r="F9" s="344" t="n">
         <v>322916.6666666667</v>
       </c>
       <c r="G9" s="157" t="n"/>
@@ -6440,12 +6449,12 @@
       </c>
       <c r="C13" s="157" t="n"/>
       <c r="D13" s="157" t="n"/>
-      <c r="E13" s="305" t="inlineStr">
+      <c r="E13" s="306" t="inlineStr">
         <is>
           <t>CPM</t>
         </is>
       </c>
-      <c r="F13" s="265" t="n"/>
+      <c r="F13" s="266" t="n"/>
       <c r="G13" s="157" t="n"/>
       <c r="H13" s="158" t="n"/>
       <c r="I13" s="158" t="n"/>
